--- a/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
+++ b/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
@@ -1,26 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/Team12_XpathWarriors_LMS_UI_Apr2024/src/test/resources/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B958DD5-691D-1949-8810-A42D50EBEAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Phone no</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Visa Status</t>
+  </si>
+  <si>
+    <t>Role Status</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Linked Url</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Under Graduate</t>
+  </si>
+  <si>
+    <t>Post Graduate</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com /in/ xpathwarriors/</t>
+  </si>
+  <si>
+    <t>Btech</t>
+  </si>
+  <si>
+    <t>Mtech</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>UserComments</t>
+  </si>
+  <si>
+    <t>User for R01</t>
+  </si>
+  <si>
+    <t>xpathwarriors08@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdefr</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>Staff Email Id</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Batch Name</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Sdet1010</t>
+  </si>
+  <si>
+    <t>Sdet147</t>
+  </si>
+  <si>
+    <t>team1234@gmai.com</t>
+  </si>
+  <si>
+    <t>Amreen</t>
+  </si>
+  <si>
+    <t>Nazia</t>
+  </si>
+  <si>
+    <t>xpathwarriors583@gmail.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -29,33 +168,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -245,19 +398,242 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="15" max="15" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7722334500</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>123</v>
+      </c>
+      <c r="H4">
+        <v>123</v>
+      </c>
+      <c r="I4">
+        <v>123</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>123</v>
+      </c>
+      <c r="L4">
+        <v>123</v>
+      </c>
+      <c r="M4">
+        <v>123</v>
+      </c>
+      <c r="N4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{B25104BF-F81C-8D44-B62A-7B395BE572D5}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{0D3C8955-7B76-9A43-B5EE-5073F2B959F0}"/>
+    <hyperlink ref="O6" r:id="rId3" xr:uid="{7C901519-D915-A948-A299-5A5B1DC454E3}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{0F40225D-D975-5645-BA5D-3CE8BDFB544E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
+++ b/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/Team12_XpathWarriors_LMS_UI_Apr2024/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B958DD5-691D-1949-8810-A42D50EBEAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB68DE-4C9A-4949-A6EE-A86E356CAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,13 +127,13 @@
     <t>team1234@gmai.com</t>
   </si>
   <si>
-    <t>Amreen</t>
-  </si>
-  <si>
-    <t>Nazia</t>
-  </si>
-  <si>
-    <t>xpathwarriors583@gmail.com</t>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>xpathWarriors</t>
+  </si>
+  <si>
+    <t>xpathwarriors584@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -491,7 +491,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>7722334500</v>
+        <v>7722334501</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
+++ b/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/Team12_XpathWarriors_LMS_UI_Apr2024/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB68DE-4C9A-4949-A6EE-A86E356CAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CD73C-B6E9-494E-80A7-21C2E1ECFBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>First Name</t>
   </si>
@@ -133,7 +133,7 @@
     <t>xpathWarriors</t>
   </si>
   <si>
-    <t>xpathwarriors584@gmail.com</t>
+    <t>xpathwarriors588@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>7722334501</v>
+        <v>7722334502</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -606,6 +606,9 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>31</v>
       </c>
@@ -619,6 +622,9 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O6" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>33</v>
@@ -633,6 +639,7 @@
     <hyperlink ref="J4" r:id="rId2" xr:uid="{0D3C8955-7B76-9A43-B5EE-5073F2B959F0}"/>
     <hyperlink ref="O6" r:id="rId3" xr:uid="{7C901519-D915-A948-A299-5A5B1DC454E3}"/>
     <hyperlink ref="J2" r:id="rId4" xr:uid="{0F40225D-D975-5645-BA5D-3CE8BDFB544E}"/>
+    <hyperlink ref="O5" r:id="rId5" xr:uid="{4AD94B83-DF25-1D45-AAFC-FD698BF5E3DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
